--- a/Module 3. Applied statistics in excel/Project/Statistics Project.xlsx
+++ b/Module 3. Applied statistics in excel/Project/Statistics Project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjali\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5470A69B-0867-4042-B261-BCDC135617A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCEF71B-7609-4F4E-A716-7F81916DCDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="41">
   <si>
     <t>Month</t>
   </si>
@@ -148,6 +146,39 @@
   <si>
     <t>SE</t>
   </si>
+  <si>
+    <r>
+      <t>t-statistic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: -0.449</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0.657</t>
+    </r>
+  </si>
+  <si>
+    <t>P-value&gt;0.05 so no statistically significant difference in average sales between the North and South regions.</t>
+  </si>
 </sst>
 </file>
 
@@ -223,16 +254,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -539,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +581,7 @@
     <col min="11" max="11" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -586,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -613,7 +642,7 @@
         <v>195641.86610552762</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -637,7 +666,7 @@
         <v>442.31421648589094</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -654,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -674,7 +703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -691,7 +720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -714,8 +743,11 @@
         <f>AVERAGEIF(B2:B201,"South",D2:D201)</f>
         <v>4678.2075471698117</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -738,8 +770,11 @@
         <f>AVERAGEIF(B2:B201,"North",D2:D201)</f>
         <v>4692.3809523809523</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -762,8 +797,9 @@
         <f>K9-K8</f>
         <v>14.173405211140562</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -779,8 +815,12 @@
       <c r="E11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -799,8 +839,9 @@
       <c r="G12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -824,7 +865,7 @@
         <v>4698.3850000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -848,7 +889,7 @@
         <v>442.31421648589094</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -872,7 +913,7 @@
         <v>9.4141756472892482E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -942,14 +983,14 @@
       <c r="E19">
         <v>5</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -967,14 +1008,12 @@
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="I20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -992,16 +1031,16 @@
       <c r="E21">
         <v>5</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J21" s="4">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4"/>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
